--- a/чистый бланк/Бланк ЗПФ  клиент ООО НВ на отгрузку с 05.06.2024ХР.xlsx
+++ b/чистый бланк/Бланк ЗПФ  клиент ООО НВ на отгрузку с 05.06.2024ХР.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5484BD98-04F8-47B5-93B9-4F6893D57D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4134667B-17F5-434C-B9DA-016EB4722A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25335,21 +25335,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100BE9B55E4B75ADC4EA022BCFE912025B5" ma:contentTypeVersion="2" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="2ac6f31670a5913a5008fc49ead251a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb0b2827-4eb3-461f-8866-28597c48f473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f54d7d8b2039ed4c9796edaba581cae7" ns2:_="">
     <xsd:import namespace="bb0b2827-4eb3-461f-8866-28597c48f473"/>
@@ -25497,31 +25482,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36407DDB-7AD7-47BE-9510-621E920C3D44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE5A0B88-DB71-4916-80FA-147DE2C72DAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25537,4 +25513,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36407DDB-7AD7-47BE-9510-621E920C3D44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>